--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ve40007843\Documents\DemoProjects\TelstraDemo\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ve40007843/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F468ED0-79CD-BA45-8DC6-9C57B1FA9D62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16180" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cam</t>
   </si>
@@ -45,12 +46,24 @@
   </si>
   <si>
     <t>Telstra@123</t>
+  </si>
+  <si>
+    <t>CameraModel</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Venkatesh</t>
+  </si>
+  <si>
+    <t>Sony CyberShot DSC-W800/SC IN5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,20 +385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -401,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -409,7 +422,7 @@
         <v>8660716085</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -417,9 +430,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ve40007843/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ve40007843/Automation/TelstraDemo/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F468ED0-79CD-BA45-8DC6-9C57B1FA9D62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09789120-BCAE-944A-AAC1-3E1855FE965E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16180" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,14 +57,14 @@
     <t>Venkatesh</t>
   </si>
   <si>
-    <t>Sony CyberShot DSC-W800/SC IN5</t>
+    <t>Sony CyberShot DSC-W800/BC IN5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,13 +396,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -434,7 +441,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
